--- a/DateBase/orders/Dang Nguyen_2025-7-25.xlsx
+++ b/DateBase/orders/Dang Nguyen_2025-7-25.xlsx
@@ -681,6 +681,9 @@
       <c r="C30" t="str">
         <v>458_蓝盆花白色_Scabiosa caucasica white_undefined_1bunch</v>
       </c>
+      <c r="F30" t="str">
+        <v>10</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
@@ -742,7 +745,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>0106101810144258151551516151015515151055610100</v>
+        <v>01061018101442581515515161510155151510556101010</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen_2025-7-25.xlsx
+++ b/DateBase/orders/Dang Nguyen_2025-7-25.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L30"/>
+  <dimension ref="A1:L50"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -685,9 +685,176 @@
         <v>10</v>
       </c>
     </row>
+    <row r="31">
+      <c r="A31" t="str">
+        <v>1</v>
+      </c>
+      <c r="C31" t="str">
+        <v>154_莫泊_Moab_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F31" t="str">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="C32" t="str">
+        <v>144_高原红_High Plateau Red_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F32" t="str">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="C33" t="str">
+        <v>192_粉荔枝_Pink Ohara_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F33" t="str">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="C34" t="str">
+        <v>152_白荔枝_White Ohara_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F34" t="str">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="C35" t="str">
+        <v>454_蓝星花_tweedia blue_undefined_1bunch</v>
+      </c>
+      <c r="F35" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="str">
+        <v>2</v>
+      </c>
+      <c r="C36" t="str">
+        <v>217_琉璃翠_Dynamic_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F36" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="C37" t="str">
+        <v>144_高原红_High Plateau Red_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F37" t="str">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="C38" t="str">
+        <v>160_卡布奇诺_Cappuccino_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F38" t="str">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="C39" t="str">
+        <v>160_卡布奇诺_Cappuccino_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F39" t="str">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="C40" t="str">
+        <v>147_娜欧米_Red Naomi_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F40" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="C41" t="str">
+        <v>454_蓝星花_tweedia blue_undefined_1bunch</v>
+      </c>
+      <c r="F41" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="str">
+        <v>3</v>
+      </c>
+      <c r="C42" t="str">
+        <v>147_娜欧米_Red Naomi_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F42" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="C43" t="str">
+        <v>268_猩红泡泡_spray red_Rosa rugosa Thunb._10stems</v>
+      </c>
+      <c r="F43" t="str">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="C44" t="str">
+        <v>268_猩红泡泡_spray red_Rosa rugosa Thunb._10stems</v>
+      </c>
+      <c r="F44" t="str">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="C45" t="str">
+        <v>221_朱丽叶塔_Julieta_Rosa rugosa Thunb._10stems</v>
+      </c>
+      <c r="F45" t="str">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="C46" t="str">
+        <v>238_苏菲宝贝_undefined_Rosa rugosa Thunb._10stems</v>
+      </c>
+      <c r="F46" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="C47" t="str">
+        <v>238_苏菲宝贝_undefined_Rosa rugosa Thunb._10stems</v>
+      </c>
+      <c r="F47" t="str">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="C48" t="str">
+        <v>225_果汁阳台_Juicy Terrazza_Rosa rugosa Thunb._10stems</v>
+      </c>
+      <c r="F48" t="str">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="C49" t="str">
+        <v>276_情迷罗拉_undefined_Rosa rugosa Thunb._10stems</v>
+      </c>
+      <c r="F49" t="str">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" xml:space="preserve">
+      <c r="C50" t="str" xml:space="preserve">
+        <v xml:space="preserve">510_翠珠白_Didiscus caeruleus 
+white_Trachymene Coerulea_1bunch</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L30"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L50"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -745,7 +912,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>01061018101442581515515161510155151510556101010</v>
+        <v>010610181014425815155151615101551515105561010101113135.51510382151554491012610</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen_2025-7-25.xlsx
+++ b/DateBase/orders/Dang Nguyen_2025-7-25.xlsx
@@ -851,6 +851,9 @@
         <v xml:space="preserve">510_翠珠白_Didiscus caeruleus 
 white_Trachymene Coerulea_1bunch</v>
       </c>
+      <c r="F50" t="str">
+        <v>15</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
@@ -912,7 +915,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>010610181014425815155151615101551515105561010101113135.51510382151554491012610</v>
+        <v>010610181014425815155151615101551515105561010101113135.515103821515544910126115</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen_2025-7-25.xlsx
+++ b/DateBase/orders/Dang Nguyen_2025-7-25.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L50"/>
+  <dimension ref="A1:L64"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -855,9 +855,127 @@
         <v>15</v>
       </c>
     </row>
+    <row r="51">
+      <c r="A51" t="str">
+        <v>4</v>
+      </c>
+      <c r="C51" t="str">
+        <v>317_尤加利叶细叶_Eucalyptus Parvifolia_undefined_1bunch</v>
+      </c>
+      <c r="F51" t="str">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="C52" t="str">
+        <v>105_绣球莫奈蓝_Hydrangea Monet Blue_Hydrangea L._1stem</v>
+      </c>
+      <c r="F52" t="str">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="C53" t="str">
+        <v>322_喷泉草_Grasses Panicum_undefined_1bunch</v>
+      </c>
+      <c r="F53" t="str">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="C54" t="str">
+        <v>695_百合虎皮_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F54" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="C55" t="str">
+        <v>687_百合黑_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F55" t="str">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="C56" t="str">
+        <v>276_情迷罗拉_undefined_Rosa rugosa Thunb._10stems</v>
+      </c>
+      <c r="F56" t="str">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="C57" t="str">
+        <v>602_康乃馨白_white_undefined_20stems</v>
+      </c>
+      <c r="F57" t="str">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="C58" t="str">
+        <v>606_康乃馨橙光_orange_undefined_20stems</v>
+      </c>
+      <c r="F58" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="C59" t="str">
+        <v>411_紫罗兰白_violet white_undefined_1bunch</v>
+      </c>
+      <c r="F59" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="C60" t="str">
+        <v>506_紫罗兰香槟色_violet champagne_undefined_1bunch</v>
+      </c>
+      <c r="F60" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="C61" t="str">
+        <v>546_绿宝石_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F61" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="str">
+        <v>5</v>
+      </c>
+      <c r="C62" t="str">
+        <v>41_拉丝白_Spider White_Gerbera L._20stems</v>
+      </c>
+      <c r="F62" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="C63" t="str">
+        <v>44_拉丝粉_Spider Pink_Gerbera L._20stems</v>
+      </c>
+      <c r="F63" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="C64" t="str">
+        <v>46_拉丝橙_Spider orange_Gerbera L._20stems</v>
+      </c>
+      <c r="F64" t="str">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L50"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L64"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -915,7 +1033,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>010610181014425815155151615101551515105561010101113135.515103821515544910126115</v>
+        <v>010610181014425815155151615101551515105561010101113135.5151038215155449101261152020205462010155105105</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen_2025-7-25.xlsx
+++ b/DateBase/orders/Dang Nguyen_2025-7-25.xlsx
@@ -1035,6 +1035,9 @@
       <c r="G2" t="str">
         <v>010610181014425815155151615101551515105561010101113135.5151038215155449101261152020205462010155105105</v>
       </c>
+      <c r="H2" t="str">
+        <v>CNY</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
